--- a/xlsx/波音_intext.xlsx
+++ b/xlsx/波音_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>波音</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3_(%E9%9F%B3%E6%A8%82)</t>
   </si>
   <si>
-    <t>波音 (音樂)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_波音</t>
+    <t>波音 (音乐)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_波音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%89%BF%E5%8C%85%E5%95%86</t>
   </si>
   <si>
-    <t>國防承包商</t>
+    <t>国防承包商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E5%BC%B9</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3%E5%95%86%E7%94%A8%E9%A3%9E%E6%9C%BA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E7%BF%BC%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>固定翼飛機</t>
+    <t>固定翼飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E7%BF%BC%E6%9C%BA</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%AB%94%E5%AE%A2%E6%A9%9F</t>
   </si>
   <si>
-    <t>廣體客機</t>
+    <t>广体客机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%B7%B4%E5%A3%AB</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA</t>
@@ -227,19 +227,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF</t>
   </si>
   <si>
-    <t>溫哥華</t>
+    <t>温哥华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3247</t>
@@ -263,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%8A%80%E8%A1%93%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>聯合技術公司</t>
+    <t>联合技术公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3307</t>
@@ -281,43 +278,43 @@
     <t>https://zh.wikipedia.org/wiki/B-17%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-17轟炸機</t>
+    <t>B-17轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰略轟炸機</t>
+    <t>战略轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-29%E8%B6%85%E7%B4%9A%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-29超級堡壘轟炸機</t>
+    <t>B-29超级堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%85%8B%E6%96%AF%E5%8D%A1%E8%99%9F</t>
   </si>
   <si>
-    <t>博克斯卡號</t>
+    <t>博克斯卡号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%8E%A0%E7%BF%BC</t>
   </si>
   <si>
-    <t>後掠翼</t>
+    <t>后掠翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-47%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-47轟炸機</t>
+    <t>B-47轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-52%E5%90%8C%E6%BA%AB%E5%B1%A4%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-52同溫層堡壘轟炸機</t>
+    <t>B-52同温层堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3377</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E5%B0%84%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>噴射引擎</t>
+    <t>喷射引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%BB%B4%E5%B0%94</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/XB-70%E6%88%B0%E7%A5%9E%E4%BE%8D%E5%A9%A2%E5%BC%8F%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>XB-70戰神侍婢式轟炸機</t>
+    <t>XB-70战神侍婢式轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>空中加油機</t>
+    <t>空中加油机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KC-135%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%9C%BA</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>空中預警機</t>
+    <t>空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%85%8B%E6%96%AF%E5%AD%90%E7%88%B5</t>
   </si>
   <si>
-    <t>維克斯子爵</t>
+    <t>维克斯子爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3737</t>
@@ -419,19 +416,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>英國海外航空</t>
+    <t>英国海外航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%8E%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>漢莎航空</t>
+    <t>汉莎航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%9F%B3%E9%80%9F%E5%AE%A2%E6%A9%9F</t>
   </si>
   <si>
-    <t>超音速客機</t>
+    <t>超音速客机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B32707</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A300</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D-%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>麥克唐納-道格拉斯公司</t>
+    <t>麦克唐纳-道格拉斯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E5%B8%8C%E5%BE%B7%E5%85%AC%E5%8F%B8</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第一次石油危機</t>
+    <t>第一次石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3757</t>
@@ -503,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>五角大廈</t>
+    <t>五角大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E9%80%9F%E5%B7%A1%E8%88%AA%E6%A9%9F</t>
   </si>
   <si>
-    <t>音速巡航機</t>
+    <t>音速巡航机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/911%E4%BA%8B%E4%BB%B6</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E9%AB%94%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>寬體飛機</t>
+    <t>宽体飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3%E9%BB%83%E7%9F%B3%E5%B0%88%E6%A1%88</t>
   </si>
   <si>
-    <t>波音黃石專案</t>
+    <t>波音黄石专案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%88%AA%E7%A9%BA%E5%B1%80</t>
@@ -587,25 +584,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -617,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8</t>
   </si>
   <si>
-    <t>飛行器</t>
+    <t>飞行器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3314</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8%E8%A3%BD%E9%80%A0%E5%95%86%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行器製造商列表</t>
+    <t>飞行器制造商列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -701,13 +698,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>旋翼機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>機場列表</t>
+    <t>机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%8D%9A%E7%89%A9%E9%A6%86%E5%88%97%E8%A1%A8</t>
@@ -725,31 +719,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E5%A7%8B%E5%AE%A2%E6%88%B6</t>
   </si>
   <si>
-    <t>啟始客戶</t>
+    <t>启始客户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E5%B0%84%E5%AE%A2%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>噴射客機列表</t>
+    <t>喷射客机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>貨機列表</t>
+    <t>货机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E6%AD%87%E6%A5%AD%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>已歇業航空公司列表</t>
+    <t>已歇业航空公司列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA%E9%81%8B%E8%BC%B8%E5%8D%94%E6%9C%83%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際航空運輸協會航空公司代碼</t>
+    <t>国际航空运输协会航空公司代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E9%83%A8%E9%97%A8%E5%88%97%E8%A1%A8</t>
@@ -761,31 +755,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>軍用航空</t>
+    <t>军用航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>空軍列表</t>
+    <t>空军列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E8%88%AA%E7%A9%BA%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>無人航空載具</t>
+    <t>无人航空载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>試驗機</t>
+    <t>试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E7%BE%8E%E5%9C%8B%E4%B8%89%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%99%A8%E5%91%BD%E5%90%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>1962美國三軍航空器命名系統</t>
+    <t>1962美国三军航空器命名系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%B8%89%E5%86%9B%E5%AF%BC%E5%BC%B9%E5%8F%8A%E6%97%A0%E4%BA%BA%E6%9C%BA%E5%91%BD%E5%90%8D%E7%B3%BB%E7%BB%9F</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA%E5%99%A8%E5%BA%8F%E8%99%9F</t>
   </si>
   <si>
-    <t>英國軍用航空器序號</t>
+    <t>英国军用航空器序号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA</t>
@@ -809,43 +803,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天機構列表</t>
+    <t>航天机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%A9%BF%E6%A2%AD%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太空穿梭機列表</t>
+    <t>太空穿梭机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭列表</t>
+    <t>运载火箭列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E4%B8%8A%E9%9D%A2%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭上面級列表</t>
+    <t>运载火箭上面级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E7%B3%BB%E5%88%97%E5%AE%87%E5%AE%99%E9%A3%9B%E8%88%B9%E7%99%BC%E5%B0%84%E4%BB%BB%E5%8B%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯盟系列宇宙飛船發射任務列表</t>
+    <t>联盟系列宇宙飞船发射任务列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8_(1965%E5%B9%B4%E8%87%B31999%E5%B9%B4)</t>
   </si>
   <si>
-    <t>艙外活動列表 (1965年至1999年)</t>
+    <t>舱外活动列表 (1965年至1999年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%99%9F%E5%A4%AA%E7%A9%BA%E7%AB%99%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>禮炮號太空站艙外活動列表</t>
+    <t>礼炮号太空站舱外活动列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA2000%E5%B9%B4%E7%9A%84%E8%88%B1%E5%A4%96%E6%B4%BB%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%81%8A%E5%AE%A2</t>
   </si>
   <si>
-    <t>太空遊客</t>
+    <t>太空游客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E4%BA%8B%E6%95%85</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E9%A3%9B%E6%A9%9F%E7%A9%BA%E9%9B%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>軍用飛機空難列表</t>
+    <t>军用飞机空难列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E6%88%90%E8%87%B3%E5%B0%9150%E4%BA%BA%E6%AD%BB%E4%BA%A1%E7%9A%84%E7%A9%BA%E9%9A%BE%E5%88%97%E8%A1%A8</t>
@@ -893,61 +887,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E8%A8%98%E9%8C%84%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天記錄列表</t>
+    <t>航天记录列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E9%80%9F%E5%BA%A6%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行速度記錄</t>
+    <t>飞行速度记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E8%B7%9D%E9%9B%A2%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行距離記錄</t>
+    <t>飞行距离记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E6%9C%80%E9%AB%98%E8%A3%BD%E9%80%A0%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛機最高製造數量列表</t>
+    <t>飞机最高制造数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-26%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-26戰鬥機</t>
+    <t>P-26战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15鷹式戰鬥機</t>
+    <t>F-15鹰式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F/A-18%E9%BB%83%E8%9C%82%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18黃蜂式戰鬥攻擊機</t>
+    <t>F/A-18黄蜂式战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-22%E7%8C%9B%E7%A6%BD%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-22猛禽戰鬥機</t>
+    <t>F-22猛禽战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AV-8%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>AV-8攻擊機</t>
+    <t>AV-8攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15E%E6%89%93%E6%93%8A%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15E打擊鷹式戰鬥轟炸機</t>
+    <t>F-15E打击鹰式战斗轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15SE%E6%B2%89%E9%BB%98%E9%B9%B0%E5%BC%8F%E6%88%98%E6%96%97%E6%9C%BA</t>
@@ -965,37 +959,37 @@
     <t>https://zh.wikipedia.org/wiki/B-1%E6%A7%8D%E9%A8%8E%E5%85%B5%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-1槍騎兵戰略轟炸機</t>
+    <t>B-1枪骑兵战略轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CH-47%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-47直升機</t>
+    <t>CH-47直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AH-64%E9%98%BF%E5%B8%95%E5%A5%91%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>AH-64阿帕契直升機</t>
+    <t>AH-64阿帕契直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%95%E5%A5%91AH_MK1%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>阿帕契AH MK1直昇機</t>
+    <t>阿帕契AH MK1直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RAH-66%E5%8D%A1%E6%9B%BC%E5%A5%91%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>RAH-66卡曼契直升機</t>
+    <t>RAH-66卡曼契直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3307%E5%B9%B3%E6%B5%81%E5%B1%A4%E5%AE%A2%E6%A9%9F</t>
   </si>
   <si>
-    <t>波音307平流層客機</t>
+    <t>波音307平流层客机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_C-97_Stratofreighter</t>
@@ -1037,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/KC-46%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>KC-46空中加油機</t>
+    <t>KC-46空中加油机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KC-767%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%9C%BA</t>
@@ -1049,19 +1043,19 @@
     <t>https://zh.wikipedia.org/wiki/T-45%E8%92%BC%E9%B7%B9%E6%95%99%E7%B7%B4%E6%A9%9F</t>
   </si>
   <si>
-    <t>T-45蒼鷹教練機</t>
+    <t>T-45苍鹰教练机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-8%E6%B3%A2%E8%B3%BD%E9%A0%93%E6%B5%B7%E4%B8%8A%E5%B7%A1%E9%82%8F%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-8波賽頓海上巡邏機</t>
+    <t>P-8波赛顿海上巡逻机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-3%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-3空中預警機</t>
+    <t>E-3空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-6%E9%80%9A%E4%BF%A1%E4%B8%AD%E7%BB%A7%E6%9C%BA</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/E-737%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-737空中預警機</t>
+    <t>E-737空中预警机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_NC-135</t>
@@ -1115,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/X-20%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-20試驗機</t>
+    <t>X-20试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3X-37</t>
@@ -1157,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%9B</t>
@@ -1169,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E9%80%9A</t>
   </si>
   <si>
-    <t>美國運通</t>
+    <t>美国运通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Visa</t>
@@ -1187,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%BB%9F</t>
@@ -1247,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%94%9F%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>強生公司</t>
+    <t>强生公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%85%8B%E8%97%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>默克藥廠</t>
+    <t>默克药厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
@@ -1277,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E7%91%9E</t>
   </si>
   <si>
-    <t>輝瑞</t>
+    <t>辉瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%B4%81</t>
@@ -1289,25 +1283,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E5%AE%B6%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>旅行家集團</t>
+    <t>旅行家集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>聯合健康保險</t>
+    <t>联合健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%8A%80%E6%9C%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>联合技术公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%8E%9B</t>
@@ -1325,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%A6%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>奧馳亞</t>
+    <t>奥驰亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A4%AB%E9%A3%9F%E5%93%81</t>
@@ -1337,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%9A%9B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>美國國際集團</t>
+    <t>美国国际集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%83%9F%E8%8D%89%E5%85%AC%E5%8F%B8</t>
@@ -1385,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E5%90%88%E7%A2%B3%E5%8C%96%E7%89%A9</t>
   </si>
   <si>
-    <t>美國聯合碳化物</t>
+    <t>美国联合碳化物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%99%AE</t>
@@ -1403,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美國銀行</t>
+    <t>美国银行</t>
   </si>
 </sst>
 </file>
@@ -2760,7 +2751,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -2786,10 +2777,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2815,10 +2806,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2844,10 +2835,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2873,10 +2864,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2902,10 +2893,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2931,10 +2922,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2960,10 +2951,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2989,10 +2980,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3018,10 +3009,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3047,10 +3038,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3076,10 +3067,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3105,10 +3096,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3134,10 +3125,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3163,10 +3154,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3192,10 +3183,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3221,10 +3212,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3250,10 +3241,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3279,10 +3270,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3308,10 +3299,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3337,10 +3328,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3366,10 +3357,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3395,10 +3386,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3424,10 +3415,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3453,10 +3444,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3482,10 +3473,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3511,10 +3502,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3540,10 +3531,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3569,10 +3560,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3598,10 +3589,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3627,10 +3618,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3656,10 +3647,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3685,10 +3676,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3714,10 +3705,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3743,10 +3734,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>8</v>
@@ -3772,10 +3763,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3801,10 +3792,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3830,10 +3821,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3859,10 +3850,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3888,10 +3879,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3917,10 +3908,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3946,10 +3937,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3975,10 +3966,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4004,10 +3995,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4033,10 +4024,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4062,10 +4053,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4091,10 +4082,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4120,10 +4111,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4149,10 +4140,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4178,10 +4169,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -4207,10 +4198,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4236,10 +4227,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" t="s">
         <v>115</v>
-      </c>
-      <c r="F86" t="s">
-        <v>116</v>
       </c>
       <c r="G86" t="n">
         <v>12</v>
@@ -4265,10 +4256,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4294,10 +4285,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>9</v>
@@ -4323,10 +4314,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" t="s">
         <v>123</v>
-      </c>
-      <c r="F89" t="s">
-        <v>124</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -4352,10 +4343,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" t="s">
         <v>127</v>
-      </c>
-      <c r="F90" t="s">
-        <v>128</v>
       </c>
       <c r="G90" t="n">
         <v>14</v>
@@ -4381,10 +4372,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" t="s">
         <v>129</v>
-      </c>
-      <c r="F91" t="s">
-        <v>130</v>
       </c>
       <c r="G91" t="n">
         <v>18</v>
@@ -4410,10 +4401,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92" t="s">
         <v>155</v>
-      </c>
-      <c r="F92" t="s">
-        <v>156</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
@@ -4439,10 +4430,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93" t="s">
         <v>157</v>
-      </c>
-      <c r="F93" t="s">
-        <v>158</v>
       </c>
       <c r="G93" t="n">
         <v>8</v>
@@ -4468,10 +4459,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" t="s">
         <v>159</v>
-      </c>
-      <c r="F94" t="s">
-        <v>160</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
@@ -4497,10 +4488,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>166</v>
+      </c>
+      <c r="F95" t="s">
         <v>167</v>
-      </c>
-      <c r="F95" t="s">
-        <v>168</v>
       </c>
       <c r="G95" t="n">
         <v>13</v>
@@ -4526,10 +4517,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>174</v>
+      </c>
+      <c r="F96" t="s">
         <v>175</v>
-      </c>
-      <c r="F96" t="s">
-        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4555,10 +4546,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" t="s">
         <v>177</v>
-      </c>
-      <c r="F97" t="s">
-        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4584,10 +4575,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" t="s">
         <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4613,10 +4604,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" t="s">
         <v>181</v>
-      </c>
-      <c r="F99" t="s">
-        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4642,10 +4633,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>182</v>
+      </c>
+      <c r="F100" t="s">
         <v>183</v>
-      </c>
-      <c r="F100" t="s">
-        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4671,10 +4662,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" t="s">
         <v>185</v>
-      </c>
-      <c r="F101" t="s">
-        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4700,10 +4691,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" t="s">
         <v>187</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4729,10 +4720,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" t="s">
         <v>189</v>
-      </c>
-      <c r="F103" t="s">
-        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4758,10 +4749,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
         <v>191</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4787,10 +4778,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" t="s">
         <v>193</v>
-      </c>
-      <c r="F105" t="s">
-        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4816,10 +4807,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" t="s">
         <v>195</v>
-      </c>
-      <c r="F106" t="s">
-        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -4845,10 +4836,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" t="s">
         <v>197</v>
-      </c>
-      <c r="F107" t="s">
-        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4874,10 +4865,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" t="s">
         <v>199</v>
-      </c>
-      <c r="F108" t="s">
-        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4903,10 +4894,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" t="s">
         <v>201</v>
-      </c>
-      <c r="F109" t="s">
-        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -4932,10 +4923,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>74</v>
+      </c>
+      <c r="F110" t="s">
         <v>75</v>
-      </c>
-      <c r="F110" t="s">
-        <v>76</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -4961,10 +4952,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>86</v>
+      </c>
+      <c r="F111" t="s">
         <v>87</v>
-      </c>
-      <c r="F111" t="s">
-        <v>88</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4990,10 +4981,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" t="s">
         <v>85</v>
-      </c>
-      <c r="F112" t="s">
-        <v>86</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5019,10 +5010,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>84</v>
+      </c>
+      <c r="F113" t="s">
         <v>85</v>
-      </c>
-      <c r="F113" t="s">
-        <v>86</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5048,10 +5039,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" t="s">
         <v>203</v>
-      </c>
-      <c r="F114" t="s">
-        <v>204</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5077,10 +5068,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F115" t="s">
         <v>91</v>
-      </c>
-      <c r="F115" t="s">
-        <v>92</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5106,10 +5097,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" t="s">
         <v>205</v>
-      </c>
-      <c r="F116" t="s">
-        <v>206</v>
       </c>
       <c r="G116" t="n">
         <v>6</v>
@@ -5135,10 +5126,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>100</v>
+      </c>
+      <c r="F117" t="s">
         <v>101</v>
-      </c>
-      <c r="F117" t="s">
-        <v>102</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5164,10 +5155,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" t="s">
         <v>97</v>
-      </c>
-      <c r="F118" t="s">
-        <v>98</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5193,10 +5184,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" t="s">
         <v>99</v>
-      </c>
-      <c r="F119" t="s">
-        <v>100</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5222,10 +5213,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>170</v>
+      </c>
+      <c r="F120" t="s">
         <v>171</v>
-      </c>
-      <c r="F120" t="s">
-        <v>172</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5251,10 +5242,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" t="s">
         <v>139</v>
-      </c>
-      <c r="F121" t="s">
-        <v>140</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5280,10 +5271,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>206</v>
+      </c>
+      <c r="F122" t="s">
         <v>207</v>
-      </c>
-      <c r="F122" t="s">
-        <v>208</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5309,10 +5300,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>208</v>
+      </c>
+      <c r="F123" t="s">
         <v>209</v>
-      </c>
-      <c r="F123" t="s">
-        <v>210</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5338,10 +5329,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>210</v>
+      </c>
+      <c r="F124" t="s">
         <v>211</v>
-      </c>
-      <c r="F124" t="s">
-        <v>212</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5367,10 +5358,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125" t="s">
         <v>213</v>
-      </c>
-      <c r="F125" t="s">
-        <v>214</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -5396,10 +5387,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>214</v>
+      </c>
+      <c r="F126" t="s">
         <v>215</v>
-      </c>
-      <c r="F126" t="s">
-        <v>216</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -5425,10 +5416,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" t="s">
         <v>217</v>
-      </c>
-      <c r="F127" t="s">
-        <v>218</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
@@ -5454,10 +5445,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>218</v>
+      </c>
+      <c r="F128" t="s">
         <v>219</v>
-      </c>
-      <c r="F128" t="s">
-        <v>220</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5483,10 +5474,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>220</v>
+      </c>
+      <c r="F129" t="s">
         <v>221</v>
-      </c>
-      <c r="F129" t="s">
-        <v>222</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5512,10 +5503,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>222</v>
+      </c>
+      <c r="F130" t="s">
         <v>223</v>
-      </c>
-      <c r="F130" t="s">
-        <v>224</v>
       </c>
       <c r="G130" t="n">
         <v>12</v>
@@ -5541,10 +5532,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>224</v>
+      </c>
+      <c r="F131" t="s">
         <v>225</v>
-      </c>
-      <c r="F131" t="s">
-        <v>226</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5570,10 +5561,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F132" t="s">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5599,10 +5590,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F133" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5628,10 +5619,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F134" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5686,10 +5677,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -5715,10 +5706,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5744,10 +5735,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F138" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G138" t="n">
         <v>17</v>
@@ -5773,10 +5764,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F139" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5802,10 +5793,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F140" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5831,10 +5822,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F141" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5860,10 +5851,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F142" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5889,10 +5880,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F143" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G143" t="n">
         <v>5</v>
@@ -5918,10 +5909,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F144" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G144" t="n">
         <v>6</v>
@@ -5947,10 +5938,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F145" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5976,10 +5967,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F146" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6005,10 +5996,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F147" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6034,10 +6025,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F148" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6063,10 +6054,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F149" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6092,10 +6083,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F150" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6121,10 +6112,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F151" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6150,10 +6141,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F152" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6179,10 +6170,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F153" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6208,10 +6199,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F154" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6237,10 +6228,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F155" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6266,10 +6257,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F156" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6295,10 +6286,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F157" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6324,10 +6315,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F158" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6353,10 +6344,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F159" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6382,10 +6373,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F160" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6411,10 +6402,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F161" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -6440,10 +6431,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F162" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6469,10 +6460,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6498,10 +6489,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F164" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6527,10 +6518,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F165" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6556,10 +6547,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F166" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6585,10 +6576,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F167" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6614,10 +6605,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F168" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6643,10 +6634,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F169" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6672,10 +6663,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F170" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6701,10 +6692,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F171" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6730,10 +6721,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F172" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6759,10 +6750,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6788,10 +6779,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F174" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6817,10 +6808,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F175" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6846,10 +6837,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>86</v>
+      </c>
+      <c r="F176" t="s">
         <v>87</v>
-      </c>
-      <c r="F176" t="s">
-        <v>88</v>
       </c>
       <c r="G176" t="n">
         <v>6</v>
@@ -6875,10 +6866,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>90</v>
+      </c>
+      <c r="F177" t="s">
         <v>91</v>
-      </c>
-      <c r="F177" t="s">
-        <v>92</v>
       </c>
       <c r="G177" t="n">
         <v>9</v>
@@ -6904,10 +6895,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>96</v>
+      </c>
+      <c r="F178" t="s">
         <v>97</v>
-      </c>
-      <c r="F178" t="s">
-        <v>98</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -6933,10 +6924,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F179" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -6962,10 +6953,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>98</v>
+      </c>
+      <c r="F180" t="s">
         <v>99</v>
-      </c>
-      <c r="F180" t="s">
-        <v>100</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -6991,10 +6982,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F181" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7020,10 +7011,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F182" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7049,10 +7040,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F183" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7078,10 +7069,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F184" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7107,10 +7098,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F185" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7136,10 +7127,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>74</v>
+      </c>
+      <c r="F186" t="s">
         <v>75</v>
-      </c>
-      <c r="F186" t="s">
-        <v>76</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7165,10 +7156,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F187" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7194,10 +7185,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F188" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7223,10 +7214,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>202</v>
+      </c>
+      <c r="F189" t="s">
         <v>203</v>
-      </c>
-      <c r="F189" t="s">
-        <v>204</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7252,10 +7243,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F190" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7281,10 +7272,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F191" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -7310,10 +7301,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F192" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7339,10 +7330,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>122</v>
+      </c>
+      <c r="F193" t="s">
         <v>123</v>
-      </c>
-      <c r="F193" t="s">
-        <v>124</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7368,10 +7359,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F194" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7397,10 +7388,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F195" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7426,10 +7417,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>112</v>
+      </c>
+      <c r="F196" t="s">
         <v>113</v>
-      </c>
-      <c r="F196" t="s">
-        <v>114</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7455,10 +7446,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>114</v>
+      </c>
+      <c r="F197" t="s">
         <v>115</v>
-      </c>
-      <c r="F197" t="s">
-        <v>116</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7484,10 +7475,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F198" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7513,10 +7504,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F199" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7542,10 +7533,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F200" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7571,10 +7562,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F201" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7600,10 +7591,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F202" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7629,10 +7620,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F203" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7658,10 +7649,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F204" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7687,10 +7678,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F205" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7716,10 +7707,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F206" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7745,10 +7736,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F207" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7774,10 +7765,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F208" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7803,10 +7794,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F209" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7832,10 +7823,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7861,10 +7852,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F211" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7890,10 +7881,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F212" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7919,10 +7910,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7948,10 +7939,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F214" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7977,10 +7968,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F215" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8006,10 +7997,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F216" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8035,10 +8026,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F217" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8064,10 +8055,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F218" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8093,10 +8084,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8122,10 +8113,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F220" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8151,10 +8142,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F221" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8180,10 +8171,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F222" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8209,10 +8200,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F223" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8238,10 +8229,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F224" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8267,10 +8258,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F225" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8296,10 +8287,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F226" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8325,10 +8316,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F227" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8354,10 +8345,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F228" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8383,10 +8374,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F229" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8412,10 +8403,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F230" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8441,10 +8432,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F231" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8470,10 +8461,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F232" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8499,10 +8490,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F233" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8528,10 +8519,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F234" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8557,10 +8548,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F235" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8586,10 +8577,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F236" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8615,10 +8606,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F237" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8644,10 +8635,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F238" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8673,10 +8664,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F239" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8702,10 +8693,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F240" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8731,10 +8722,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F241" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8760,10 +8751,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F242" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8789,10 +8780,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F243" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8818,10 +8809,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F244" t="s">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8847,10 +8838,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F245" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8876,10 +8867,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F246" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8905,10 +8896,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F247" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8934,10 +8925,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F248" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -8963,10 +8954,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F249" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -8992,10 +8983,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F250" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9021,10 +9012,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F251" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9050,10 +9041,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F252" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9079,10 +9070,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F253" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9108,10 +9099,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F254" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9137,10 +9128,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F255" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9166,10 +9157,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F256" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9195,10 +9186,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F257" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9224,10 +9215,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F258" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9253,10 +9244,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F259" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9282,10 +9273,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F260" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9311,10 +9302,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F261" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9340,10 +9331,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F262" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
